--- a/PharmacyChain.xlsx
+++ b/PharmacyChain.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.vorobjev\Desktop\База\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C0E648-C944-49D0-9736-7E3963D82A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,374 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+  <si>
+    <t>PharmacyChain</t>
+  </si>
+  <si>
+    <t>1С</t>
+  </si>
+  <si>
+    <t>Живика</t>
+  </si>
+  <si>
+    <t>АЛЬФА ЖИВИКА ООО</t>
+  </si>
+  <si>
+    <t>ООО АЛЬТАРА_ЛАРА</t>
+  </si>
+  <si>
+    <t>АЛЬТАРА</t>
+  </si>
+  <si>
+    <t>Альянсфарма</t>
+  </si>
+  <si>
+    <t>АЛЬЯНСФАРМА ООО</t>
+  </si>
+  <si>
+    <t>Антей</t>
+  </si>
+  <si>
+    <t>АПТЕКА НА КРАСНОЙ</t>
+  </si>
+  <si>
+    <t>Аптека от склада</t>
+  </si>
+  <si>
+    <t>АПТЕКА ОТ СКЛАДА 1 ООО</t>
+  </si>
+  <si>
+    <t>Фармацевт плюс</t>
+  </si>
+  <si>
+    <t>БИЗНЕС ПЛЮС</t>
+  </si>
+  <si>
+    <t>ООО БИОЛАН_ЛАРА</t>
+  </si>
+  <si>
+    <t>БИОЛАН</t>
+  </si>
+  <si>
+    <t>Весна</t>
+  </si>
+  <si>
+    <t>ВЕСНА: МКД</t>
+  </si>
+  <si>
+    <t>Невис</t>
+  </si>
+  <si>
+    <t>ВИКО-КОНСАЛТ ООО</t>
+  </si>
+  <si>
+    <t>Вита</t>
+  </si>
+  <si>
+    <t>ВИТА-ЛАЙН</t>
+  </si>
+  <si>
+    <t>ООО ГРАС_ЛАРА</t>
+  </si>
+  <si>
+    <t>ГРАС</t>
+  </si>
+  <si>
+    <t>ООО Гармония плюя_Мой доктор</t>
+  </si>
+  <si>
+    <t>ГАРМОНИЯ ПЛЮС</t>
+  </si>
+  <si>
+    <t>Вита плюс</t>
+  </si>
+  <si>
+    <t>ГОНЧАРОВА Э.Ф.</t>
+  </si>
+  <si>
+    <t>АО Губернские аптеки_Губернские аптеки</t>
+  </si>
+  <si>
+    <t>ГУБЕРНСКИЕ АПТЕКИ АО</t>
+  </si>
+  <si>
+    <t>ООО Губернский лекарь_Губернский лекарь</t>
+  </si>
+  <si>
+    <t>ГУБЕРНСКИЙ ЛЕКАРЬ ООО</t>
+  </si>
+  <si>
+    <t>еАптека</t>
+  </si>
+  <si>
+    <t>еАптека ООО</t>
+  </si>
+  <si>
+    <t>Здоровье</t>
+  </si>
+  <si>
+    <t>ЗДОРОВЬЕ ООО</t>
+  </si>
+  <si>
+    <t>ИРИС</t>
+  </si>
+  <si>
+    <t>Здоров.ру</t>
+  </si>
+  <si>
+    <t>КАГРАМАНОВА ИП</t>
+  </si>
+  <si>
+    <t>Крым фармация</t>
+  </si>
+  <si>
+    <t>КРЫМ ФАРМАЦИЯ ГУП РК</t>
+  </si>
+  <si>
+    <t>Курганфармация</t>
+  </si>
+  <si>
+    <t>КУРГАНФАРМАЦИЯ АО</t>
+  </si>
+  <si>
+    <t>Калина фарм</t>
+  </si>
+  <si>
+    <t>КФ МАРКЕТИНГ</t>
+  </si>
+  <si>
+    <t>АСНА</t>
+  </si>
+  <si>
+    <t>ЛОРА ПЛЮС</t>
+  </si>
+  <si>
+    <t>АО МЗ_Мелодия здоровья</t>
+  </si>
+  <si>
+    <t>МЗ АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мицар </t>
+  </si>
+  <si>
+    <t>МИЦАР-Н ООО</t>
+  </si>
+  <si>
+    <t>ООО Холдинг Монастырев и Ко_Монастырев РФ</t>
+  </si>
+  <si>
+    <t>МОНАСТЫРЕВ и КОМПАНИЯ</t>
+  </si>
+  <si>
+    <t>ООО Моя аптека_Моя аптека</t>
+  </si>
+  <si>
+    <t>МОЯ АПТЕКА ООО</t>
+  </si>
+  <si>
+    <t>МФО</t>
+  </si>
+  <si>
+    <t>МФО ООО</t>
+  </si>
+  <si>
+    <t>Нео Фарм</t>
+  </si>
+  <si>
+    <t>НЕО-ФАРМ</t>
+  </si>
+  <si>
+    <t>ИП Немчинов_Семейная</t>
+  </si>
+  <si>
+    <t>НЕМЧИНОВ ИП</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>ОТРАДА ООО</t>
+  </si>
+  <si>
+    <t>Притяжение</t>
+  </si>
+  <si>
+    <t>ПРИТЯЖЕНИЕ</t>
+  </si>
+  <si>
+    <t>Проаптека</t>
+  </si>
+  <si>
+    <t>ПРОАПТЕКА</t>
+  </si>
+  <si>
+    <t>Максавит</t>
+  </si>
+  <si>
+    <t>ПРОМО ДОМ-ВОЛГА</t>
+  </si>
+  <si>
+    <t>Ригла</t>
+  </si>
+  <si>
+    <t>РИГЛА</t>
+  </si>
+  <si>
+    <t>ИП Рыжкова_ЛАРА</t>
+  </si>
+  <si>
+    <t>РЫЖКОВА Т.В.</t>
+  </si>
+  <si>
+    <t>Экономъ</t>
+  </si>
+  <si>
+    <t>САТУРН ООО</t>
+  </si>
+  <si>
+    <t>Сердце России</t>
+  </si>
+  <si>
+    <t>СЕРДЦЕ КОНТИНЕНТА ООО</t>
+  </si>
+  <si>
+    <t>Советская аптека</t>
+  </si>
+  <si>
+    <t>СОВЕТСКИЕ АПТЕКИ ООО АС</t>
+  </si>
+  <si>
+    <t>Созвездие</t>
+  </si>
+  <si>
+    <t>СОЗВЕЗДИЕ</t>
+  </si>
+  <si>
+    <t>Аптека низких цен SOS</t>
+  </si>
+  <si>
+    <t>СОС ООО</t>
+  </si>
+  <si>
+    <t>ООО Тиннер Б_Ноль Боль</t>
+  </si>
+  <si>
+    <t>ТИННЕР-Б ООО</t>
+  </si>
+  <si>
+    <t>УМП Томскфармация_Томскфармация</t>
+  </si>
+  <si>
+    <t>ТОМСКФАРМАЦИЯ УМП</t>
+  </si>
+  <si>
+    <t>Пермьфармация</t>
+  </si>
+  <si>
+    <t>УК НОВАЯ ФАРМАЦИЯ ООО</t>
+  </si>
+  <si>
+    <t>Фиалка</t>
+  </si>
+  <si>
+    <t>УК ФИАЛКА ООО</t>
+  </si>
+  <si>
+    <t>Фармация (Архангельск)</t>
+  </si>
+  <si>
+    <t>ФАРМАЦИЯ АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГУП Чувашской Республики «Фармация» </t>
+  </si>
+  <si>
+    <t>ФАРМАЦИЯ ГУП ЧР</t>
+  </si>
+  <si>
+    <t>ООО Фарм-Опт_Социальная аптека</t>
+  </si>
+  <si>
+    <t>ФАРМ-ОПТ</t>
+  </si>
+  <si>
+    <t>Алоэ</t>
+  </si>
+  <si>
+    <t>ЭДИФАРМ</t>
+  </si>
+  <si>
+    <t>Эркафарм</t>
+  </si>
+  <si>
+    <t>ЭРКАФАРМ Северо-Запад</t>
+  </si>
+  <si>
+    <t>ЮНИФАРМ</t>
+  </si>
+  <si>
+    <t>ЮНИФАРМА ООО</t>
+  </si>
+  <si>
+    <t>Адонис Армавир</t>
+  </si>
+  <si>
+    <t>Волгофарм</t>
+  </si>
+  <si>
+    <t>ГП НО НОФ</t>
+  </si>
+  <si>
+    <t>ГУП Таттехмедфарм</t>
+  </si>
+  <si>
+    <t>Дешевая аптека</t>
+  </si>
+  <si>
+    <t>МИЦАР</t>
+  </si>
+  <si>
+    <t>МУП КГАУ</t>
+  </si>
+  <si>
+    <t>НИКА</t>
+  </si>
+  <si>
+    <t>ООО Живая аптека_Живая</t>
+  </si>
+  <si>
+    <t>ОренЛек</t>
+  </si>
+  <si>
+    <t>Планета здоровья</t>
+  </si>
+  <si>
+    <t>Система К</t>
+  </si>
+  <si>
+    <t>Тандер</t>
+  </si>
+  <si>
+    <t>Тюменьфармация</t>
+  </si>
+  <si>
+    <t>Фармленд</t>
+  </si>
+  <si>
+    <t>АС ГК</t>
+  </si>
+  <si>
+    <t>АО МЗ_Мелодия здоровья ПАРТНЕР</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +399,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +435,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +718,522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>